--- a/data_processed/20250711/BTCUSDVOLSURFACE_REGULARIZED_20250711.xlsx
+++ b/data_processed/20250711/BTCUSDVOLSURFACE_REGULARIZED_20250711.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19062,7 +19062,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43753,7 +43753,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43782,7 +43782,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43956,7 +43956,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44014,7 +44014,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44217,7 +44217,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44246,7 +44246,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45136,7 +45136,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45219,7 +45219,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -45677,7 +45677,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45706,7 +45706,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45880,7 +45880,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45938,7 +45938,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45967,7 +45967,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46170,7 +46170,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46919,7 +46919,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46977,7 +46977,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47006,7 +47006,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -47139,7 +47139,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -47168,7 +47168,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -48029,7 +48029,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -50086,7 +50086,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -50144,7 +50144,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -50173,7 +50173,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -50202,7 +50202,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -50231,7 +50231,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -50260,7 +50260,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -50289,7 +50289,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -50426,7 +50426,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -50455,7 +50455,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250711/BTCUSDVOLSURFACE_REGULARIZED_20250711.xlsx
+++ b/data_processed/20250711/BTCUSDVOLSURFACE_REGULARIZED_20250711.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12200,7 +12200,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -19033,7 +19033,7 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19062,7 +19062,7 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43753,7 +43753,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43782,7 +43782,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -43956,7 +43956,7 @@
       </c>
       <c r="G1683" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44014,7 +44014,7 @@
       </c>
       <c r="G1685" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44217,7 +44217,7 @@
       </c>
       <c r="G1692" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44246,7 +44246,7 @@
       </c>
       <c r="G1693" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -45136,7 +45136,7 @@
       </c>
       <c r="G1727" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45219,7 +45219,7 @@
       </c>
       <c r="G1730" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -45677,7 +45677,7 @@
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45706,7 +45706,7 @@
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45880,7 +45880,7 @@
       </c>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45938,7 +45938,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -45967,7 +45967,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -46170,7 +46170,7 @@
       </c>
       <c r="G1765" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -46919,7 +46919,7 @@
       </c>
       <c r="G1794" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -46977,7 +46977,7 @@
       </c>
       <c r="G1796" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -47006,7 +47006,7 @@
       </c>
       <c r="G1797" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -47139,7 +47139,7 @@
       </c>
       <c r="G1802" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -47168,7 +47168,7 @@
       </c>
       <c r="G1803" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -48029,7 +48029,7 @@
       </c>
       <c r="G1836" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -50086,7 +50086,7 @@
       </c>
       <c r="G1917" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -50115,7 +50115,7 @@
       </c>
       <c r="G1918" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -50144,7 +50144,7 @@
       </c>
       <c r="G1919" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -50173,7 +50173,7 @@
       </c>
       <c r="G1920" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -50202,7 +50202,7 @@
       </c>
       <c r="G1921" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -50231,7 +50231,7 @@
       </c>
       <c r="G1922" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -50260,7 +50260,7 @@
       </c>
       <c r="G1923" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -50289,7 +50289,7 @@
       </c>
       <c r="G1924" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -50426,7 +50426,7 @@
       </c>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
@@ -50455,7 +50455,7 @@
       </c>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>BF,CS</t>
+          <t>CS,BF</t>
         </is>
       </c>
     </row>
